--- a/datos_deudores.xlsx
+++ b/datos_deudores.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15287</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>358573</v>
+        <v>27002685</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>87835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3061108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33969244</v>
+        <v>87849554</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28363345</v>
+        <v>6244281</v>
       </c>
     </row>
     <row r="14">
